--- a/biology/Biochimie/ARN_ribosomique_28S/ARN_ribosomique_28S.xlsx
+++ b/biology/Biochimie/ARN_ribosomique_28S/ARN_ribosomique_28S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ARN ribosomique 28S est le principal ARN ribosomique constituant la grande sous-unité 60S des ribosomes d'eucaryotes. Chez l'homme, il est constitué de 5 070 nucléotides[2]. Il s'agit d'un ribozyme ayant une activité peptidyl-transférase permettant la formation de liaisons peptidiques entre deux acides aminés durant la protéogenèse. Son équivalent chez les procaryotes est l'ARN ribosomique 23S de la grande sous-unité 50S des ribosomes de procaryotes[3].
-Les gènes codant cet ARN sont appelés « ADNr 28S » (28S rDNA en anglais) ; ils peuvent être utilisés pour reconstruire l'arbre phylogénétique de certaines espèces[4].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ARN ribosomique 28S est le principal ARN ribosomique constituant la grande sous-unité 60S des ribosomes d'eucaryotes. Chez l'homme, il est constitué de 5 070 nucléotides. Il s'agit d'un ribozyme ayant une activité peptidyl-transférase permettant la formation de liaisons peptidiques entre deux acides aminés durant la protéogenèse. Son équivalent chez les procaryotes est l'ARN ribosomique 23S de la grande sous-unité 50S des ribosomes de procaryotes.
+Les gènes codant cet ARN sont appelés « ADNr 28S » (28S rDNA en anglais) ; ils peuvent être utilisés pour reconstruire l'arbre phylogénétique de certaines espèces.  
 </t>
         </is>
       </c>
